--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-02.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-02.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="345">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/01/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/02/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Active Cases 02-28</t>
+  </si>
+  <si>
+    <t>Active Cases 03-01</t>
   </si>
   <si>
     <t/>
@@ -1240,6 +1243,7 @@
     <col min="79" max="79" width="12.0" customWidth="true"/>
     <col min="80" max="80" width="12.0" customWidth="true"/>
     <col min="81" max="81" width="12.0" customWidth="true"/>
+    <col min="82" max="82" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1496,13 +1500,16 @@
       <c r="CC3" t="s" s="10">
         <v>82</v>
       </c>
+      <c r="CD3" t="s" s="10">
+        <v>83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1740,14 +1747,17 @@
       </c>
       <c r="CC4" t="n">
         <v>94.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1984,15 +1994,18 @@
         <v>144.0</v>
       </c>
       <c r="CC5" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="CD5" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2230,14 +2243,17 @@
       </c>
       <c r="CC6" t="n">
         <v>358.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>427.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2475,14 +2491,17 @@
       </c>
       <c r="CC7" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2719,15 +2738,18 @@
         <v>1.0</v>
       </c>
       <c r="CC8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2964,15 +2986,18 @@
         <v>1.0</v>
       </c>
       <c r="CC9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3210,14 +3235,17 @@
       </c>
       <c r="CC10" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3455,14 +3483,17 @@
       </c>
       <c r="CC11" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3700,14 +3731,17 @@
       </c>
       <c r="CC12" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3944,15 +3978,18 @@
         <v>11.0</v>
       </c>
       <c r="CC13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CD13" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -4190,14 +4227,17 @@
       </c>
       <c r="CC14" t="n">
         <v>835.0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>806.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4434,15 +4474,18 @@
         <v>0.0</v>
       </c>
       <c r="CC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4680,14 +4723,17 @@
       </c>
       <c r="CC16" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4925,14 +4971,17 @@
       </c>
       <c r="CC17" t="n">
         <v>394.0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>459.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -5170,14 +5219,17 @@
       </c>
       <c r="CC18" t="n">
         <v>8810.0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>8720.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5415,14 +5467,17 @@
       </c>
       <c r="CC19" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5659,15 +5714,18 @@
         <v>1.0</v>
       </c>
       <c r="CC20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5905,14 +5963,17 @@
       </c>
       <c r="CC21" t="n">
         <v>146.0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -6150,14 +6211,17 @@
       </c>
       <c r="CC22" t="n">
         <v>487.0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>505.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6395,14 +6459,17 @@
       </c>
       <c r="CC23" t="n">
         <v>2848.0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>2943.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -6640,14 +6707,17 @@
       </c>
       <c r="CC24" t="n">
         <v>708.0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>723.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -6885,14 +6955,17 @@
       </c>
       <c r="CC25" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -7129,15 +7202,18 @@
         <v>6.0</v>
       </c>
       <c r="CC26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CD26" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -7375,14 +7451,17 @@
       </c>
       <c r="CC27" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -7619,15 +7698,18 @@
         <v>112.0</v>
       </c>
       <c r="CC28" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="CD28" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -7865,14 +7947,17 @@
       </c>
       <c r="CC29" t="n">
         <v>233.0</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>218.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -8110,14 +8195,17 @@
       </c>
       <c r="CC30" t="n">
         <v>504.0</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>478.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -8355,14 +8443,17 @@
       </c>
       <c r="CC31" t="n">
         <v>565.0</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>543.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -8600,14 +8691,17 @@
       </c>
       <c r="CC32" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -8844,15 +8938,18 @@
         <v>8.0</v>
       </c>
       <c r="CC33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CD33" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -9090,14 +9187,17 @@
       </c>
       <c r="CC34" t="n">
         <v>4084.0</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>4044.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -9335,14 +9435,17 @@
       </c>
       <c r="CC35" t="n">
         <v>163.0</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -9580,14 +9683,17 @@
       </c>
       <c r="CC36" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -9824,15 +9930,18 @@
         <v>88.0</v>
       </c>
       <c r="CC37" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CD37" t="n">
         <v>91.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -10069,15 +10178,18 @@
         <v>12.0</v>
       </c>
       <c r="CC38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CD38" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -10315,14 +10427,17 @@
       </c>
       <c r="CC39" t="n">
         <v>154.0</v>
+      </c>
+      <c r="CD39" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -10559,15 +10674,18 @@
         <v>0.0</v>
       </c>
       <c r="CC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -10805,14 +10923,17 @@
       </c>
       <c r="CC41" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -11050,14 +11171,17 @@
       </c>
       <c r="CC42" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -11294,15 +11418,18 @@
         <v>9.0</v>
       </c>
       <c r="CC43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CD43" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -11540,14 +11667,17 @@
       </c>
       <c r="CC44" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -11785,14 +11915,17 @@
       </c>
       <c r="CC45" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CD45" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -12029,15 +12162,18 @@
         <v>1220.0</v>
       </c>
       <c r="CC46" t="n">
+        <v>1295.0</v>
+      </c>
+      <c r="CD46" t="n">
         <v>1295.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -12274,15 +12410,18 @@
         <v>3.0</v>
       </c>
       <c r="CC47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD47" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -12519,15 +12658,18 @@
         <v>11.0</v>
       </c>
       <c r="CC48" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CD48" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -12765,14 +12907,17 @@
       </c>
       <c r="CC49" t="n">
         <v>244.0</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -13009,15 +13154,18 @@
         <v>6.0</v>
       </c>
       <c r="CC50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CD50" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -13255,14 +13403,17 @@
       </c>
       <c r="CC51" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -13500,14 +13651,17 @@
       </c>
       <c r="CC52" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -13745,14 +13899,17 @@
       </c>
       <c r="CC53" t="n">
         <v>588.0</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>545.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -13990,14 +14147,17 @@
       </c>
       <c r="CC54" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -14235,14 +14395,17 @@
       </c>
       <c r="CC55" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -14480,14 +14643,17 @@
       </c>
       <c r="CC56" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -14725,14 +14891,17 @@
       </c>
       <c r="CC57" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -14970,14 +15139,17 @@
       </c>
       <c r="CC58" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -15215,14 +15387,17 @@
       </c>
       <c r="CC59" t="n">
         <v>83.0</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -15460,14 +15635,17 @@
       </c>
       <c r="CC60" t="n">
         <v>10347.0</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>10181.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -15704,15 +15882,18 @@
         <v>11.0</v>
       </c>
       <c r="CC61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CD61" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -15950,14 +16131,17 @@
       </c>
       <c r="CC62" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -16194,15 +16378,18 @@
         <v>39.0</v>
       </c>
       <c r="CC63" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CD63" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -16440,14 +16627,17 @@
       </c>
       <c r="CC64" t="n">
         <v>12181.0</v>
+      </c>
+      <c r="CD64" t="n">
+        <v>11967.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -16684,15 +16874,18 @@
         <v>25.0</v>
       </c>
       <c r="CC65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CD65" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -16929,15 +17122,18 @@
         <v>6.0</v>
       </c>
       <c r="CC66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CD66" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -17175,14 +17371,17 @@
       </c>
       <c r="CC67" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CD67" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -17419,15 +17618,18 @@
         <v>8.0</v>
       </c>
       <c r="CC68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD68" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -17665,14 +17867,17 @@
       </c>
       <c r="CC69" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CD69" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -17910,14 +18115,17 @@
       </c>
       <c r="CC70" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -18155,14 +18363,17 @@
       </c>
       <c r="CC71" t="n">
         <v>1159.0</v>
+      </c>
+      <c r="CD71" t="n">
+        <v>1168.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -18399,15 +18610,18 @@
         <v>0.0</v>
       </c>
       <c r="CC72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -18645,14 +18859,17 @@
       </c>
       <c r="CC73" t="n">
         <v>203.0</v>
+      </c>
+      <c r="CD73" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -18890,14 +19107,17 @@
       </c>
       <c r="CC74" t="n">
         <v>6044.0</v>
+      </c>
+      <c r="CD74" t="n">
+        <v>5955.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -19135,14 +19355,17 @@
       </c>
       <c r="CC75" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CD75" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -19380,14 +19603,17 @@
       </c>
       <c r="CC76" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CD76" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -19625,14 +19851,17 @@
       </c>
       <c r="CC77" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CD77" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -19869,15 +20098,18 @@
         <v>179.0</v>
       </c>
       <c r="CC78" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="CD78" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -20114,15 +20346,18 @@
         <v>0.0</v>
       </c>
       <c r="CC79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -20360,14 +20595,17 @@
       </c>
       <c r="CC80" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CD80" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -20604,15 +20842,18 @@
         <v>0.0</v>
       </c>
       <c r="CC81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -20850,14 +21091,17 @@
       </c>
       <c r="CC82" t="n">
         <v>10442.0</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>10436.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -21095,14 +21339,17 @@
       </c>
       <c r="CC83" t="n">
         <v>99.0</v>
+      </c>
+      <c r="CD83" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -21340,14 +21587,17 @@
       </c>
       <c r="CC84" t="n">
         <v>148.0</v>
+      </c>
+      <c r="CD84" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -21585,14 +21835,17 @@
       </c>
       <c r="CC85" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -21829,15 +22082,18 @@
         <v>7.0</v>
       </c>
       <c r="CC86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CD86" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -22075,14 +22331,17 @@
       </c>
       <c r="CC87" t="n">
         <v>4448.0</v>
+      </c>
+      <c r="CD87" t="n">
+        <v>4327.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -22320,14 +22579,17 @@
       </c>
       <c r="CC88" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CD88" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -22565,14 +22827,17 @@
       </c>
       <c r="CC89" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CD89" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -22809,15 +23074,18 @@
         <v>0.0</v>
       </c>
       <c r="CC90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -23055,14 +23323,17 @@
       </c>
       <c r="CC91" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CD91" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -23300,14 +23571,17 @@
       </c>
       <c r="CC92" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -23545,14 +23819,17 @@
       </c>
       <c r="CC93" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -23790,14 +24067,17 @@
       </c>
       <c r="CC94" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -24035,14 +24315,17 @@
       </c>
       <c r="CC95" t="n">
         <v>714.0</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>713.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -24280,14 +24563,17 @@
       </c>
       <c r="CC96" t="n">
         <v>389.0</v>
+      </c>
+      <c r="CD96" t="n">
+        <v>360.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -24525,14 +24811,17 @@
       </c>
       <c r="CC97" t="n">
         <v>124.0</v>
+      </c>
+      <c r="CD97" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -24770,14 +25059,17 @@
       </c>
       <c r="CC98" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CD98" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -25015,14 +25307,17 @@
       </c>
       <c r="CC99" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CD99" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -25260,14 +25555,17 @@
       </c>
       <c r="CC100" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CD100" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -25505,14 +25803,17 @@
       </c>
       <c r="CC101" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CD101" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -25749,15 +26050,18 @@
         <v>0.0</v>
       </c>
       <c r="CC102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -25995,14 +26299,17 @@
       </c>
       <c r="CC103" t="n">
         <v>603.0</v>
+      </c>
+      <c r="CD103" t="n">
+        <v>602.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -26240,14 +26547,17 @@
       </c>
       <c r="CC104" t="n">
         <v>18730.0</v>
+      </c>
+      <c r="CD104" t="n">
+        <v>18425.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -26485,14 +26795,17 @@
       </c>
       <c r="CC105" t="n">
         <v>805.0</v>
+      </c>
+      <c r="CD105" t="n">
+        <v>799.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -26730,14 +27043,17 @@
       </c>
       <c r="CC106" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CD106" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -26974,15 +27290,18 @@
         <v>3.0</v>
       </c>
       <c r="CC107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD107" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -27220,14 +27539,17 @@
       </c>
       <c r="CC108" t="n">
         <v>480.0</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>510.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -27464,15 +27786,18 @@
         <v>8.0</v>
       </c>
       <c r="CC109" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CD109" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -27710,14 +28035,17 @@
       </c>
       <c r="CC110" t="n">
         <v>574.0</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>572.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -27955,14 +28283,17 @@
       </c>
       <c r="CC111" t="n">
         <v>1925.0</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>2138.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -28200,14 +28531,17 @@
       </c>
       <c r="CC112" t="n">
         <v>420.0</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>395.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -28445,14 +28779,17 @@
       </c>
       <c r="CC113" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -28690,14 +29027,17 @@
       </c>
       <c r="CC114" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -28935,14 +29275,17 @@
       </c>
       <c r="CC115" t="n">
         <v>160.0</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -29179,15 +29522,18 @@
         <v>60.0</v>
       </c>
       <c r="CC116" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CD116" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -29425,14 +29771,17 @@
       </c>
       <c r="CC117" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -29669,15 +30018,18 @@
         <v>2.0</v>
       </c>
       <c r="CC118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -29915,14 +30267,17 @@
       </c>
       <c r="CC119" t="n">
         <v>1328.0</v>
+      </c>
+      <c r="CD119" t="n">
+        <v>1326.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -30159,15 +30514,18 @@
         <v>49.0</v>
       </c>
       <c r="CC120" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CD120" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -30405,14 +30763,17 @@
       </c>
       <c r="CC121" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CD121" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -30649,15 +31010,18 @@
         <v>4.0</v>
       </c>
       <c r="CC122" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD122" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -30895,14 +31259,17 @@
       </c>
       <c r="CC123" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CD123" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -31140,14 +31507,17 @@
       </c>
       <c r="CC124" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CD124" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -31384,15 +31754,18 @@
         <v>21.0</v>
       </c>
       <c r="CC125" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CD125" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -31630,14 +32003,17 @@
       </c>
       <c r="CC126" t="n">
         <v>1823.0</v>
+      </c>
+      <c r="CD126" t="n">
+        <v>1756.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -31874,15 +32250,18 @@
         <v>13.0</v>
       </c>
       <c r="CC127" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CD127" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -32120,14 +32499,17 @@
       </c>
       <c r="CC128" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CD128" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -32365,14 +32747,17 @@
       </c>
       <c r="CC129" t="n">
         <v>149.0</v>
+      </c>
+      <c r="CD129" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -32610,14 +32995,17 @@
       </c>
       <c r="CC130" t="n">
         <v>115.0</v>
+      </c>
+      <c r="CD130" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -32855,14 +33243,17 @@
       </c>
       <c r="CC131" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CD131" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -33100,14 +33491,17 @@
       </c>
       <c r="CC132" t="n">
         <v>196.0</v>
+      </c>
+      <c r="CD132" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -33345,14 +33739,17 @@
       </c>
       <c r="CC133" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CD133" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -33589,15 +33986,18 @@
         <v>0.0</v>
       </c>
       <c r="CC134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -33834,15 +34234,18 @@
         <v>0.0</v>
       </c>
       <c r="CC135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B136" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -34080,14 +34483,17 @@
       </c>
       <c r="CC136" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CD136" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -34324,15 +34730,18 @@
         <v>7.0</v>
       </c>
       <c r="CC137" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CD137" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -34569,15 +34978,18 @@
         <v>0.0</v>
       </c>
       <c r="CC138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -34814,15 +35226,18 @@
         <v>1.0</v>
       </c>
       <c r="CC139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD139" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -35060,14 +35475,17 @@
       </c>
       <c r="CC140" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CD140" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -35304,15 +35722,18 @@
         <v>1.0</v>
       </c>
       <c r="CC141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD141" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -35550,14 +35971,17 @@
       </c>
       <c r="CC142" t="n">
         <v>236.0</v>
+      </c>
+      <c r="CD142" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -35794,15 +36218,18 @@
         <v>34.0</v>
       </c>
       <c r="CC143" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CD143" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -36040,14 +36467,17 @@
       </c>
       <c r="CC144" t="n">
         <v>253.0</v>
+      </c>
+      <c r="CD144" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -36285,14 +36715,17 @@
       </c>
       <c r="CC145" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CD145" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -36530,14 +36963,17 @@
       </c>
       <c r="CC146" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CD146" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -36775,14 +37211,17 @@
       </c>
       <c r="CC147" t="n">
         <v>224.0</v>
+      </c>
+      <c r="CD147" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -37020,14 +37459,17 @@
       </c>
       <c r="CC148" t="n">
         <v>155.0</v>
+      </c>
+      <c r="CD148" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -37265,14 +37707,17 @@
       </c>
       <c r="CC149" t="n">
         <v>324.0</v>
+      </c>
+      <c r="CD149" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -37510,14 +37955,17 @@
       </c>
       <c r="CC150" t="n">
         <v>281.0</v>
+      </c>
+      <c r="CD150" t="n">
+        <v>271.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -37754,15 +38202,18 @@
         <v>11.0</v>
       </c>
       <c r="CC151" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CD151" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -37999,15 +38450,18 @@
         <v>30.0</v>
       </c>
       <c r="CC152" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CD152" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B153" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -38245,14 +38699,17 @@
       </c>
       <c r="CC153" t="n">
         <v>176.0</v>
+      </c>
+      <c r="CD153" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -38489,15 +38946,18 @@
         <v>0.0</v>
       </c>
       <c r="CC154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -38735,14 +39195,17 @@
       </c>
       <c r="CC155" t="n">
         <v>351.0</v>
+      </c>
+      <c r="CD155" t="n">
+        <v>355.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -38979,15 +39442,18 @@
         <v>5.0</v>
       </c>
       <c r="CC156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CD156" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -39225,14 +39691,17 @@
       </c>
       <c r="CC157" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CD157" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -39470,14 +39939,17 @@
       </c>
       <c r="CC158" t="n">
         <v>415.0</v>
+      </c>
+      <c r="CD158" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -39714,15 +40186,18 @@
         <v>2.0</v>
       </c>
       <c r="CC159" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CD159" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -39960,14 +40435,17 @@
       </c>
       <c r="CC160" t="n">
         <v>159.0</v>
+      </c>
+      <c r="CD160" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -40204,15 +40682,18 @@
         <v>110.0</v>
       </c>
       <c r="CC161" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="CD161" t="n">
         <v>110.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -40450,14 +40931,17 @@
       </c>
       <c r="CC162" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CD162" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -40695,14 +41179,17 @@
       </c>
       <c r="CC163" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CD163" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -40940,14 +41427,17 @@
       </c>
       <c r="CC164" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CD164" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B165" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -41185,14 +41675,17 @@
       </c>
       <c r="CC165" t="n">
         <v>1001.0</v>
+      </c>
+      <c r="CD165" t="n">
+        <v>1013.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -41430,14 +41923,17 @@
       </c>
       <c r="CC166" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CD166" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -41674,15 +42170,18 @@
         <v>3.0</v>
       </c>
       <c r="CC167" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CD167" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -41920,14 +42419,17 @@
       </c>
       <c r="CC168" t="n">
         <v>248.0</v>
+      </c>
+      <c r="CD168" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -42165,14 +42667,17 @@
       </c>
       <c r="CC169" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CD169" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -42410,14 +42915,17 @@
       </c>
       <c r="CC170" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CD170" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B171" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -42655,14 +43163,17 @@
       </c>
       <c r="CC171" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CD171" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B172" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -42900,14 +43411,17 @@
       </c>
       <c r="CC172" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CD172" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B173" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -43145,14 +43659,17 @@
       </c>
       <c r="CC173" t="n">
         <v>22435.0</v>
+      </c>
+      <c r="CD173" t="n">
+        <v>22693.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B174" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -43390,14 +43907,17 @@
       </c>
       <c r="CC174" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CD174" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B175" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -43635,14 +44155,17 @@
       </c>
       <c r="CC175" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CD175" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -43879,15 +44402,18 @@
         <v>1.0</v>
       </c>
       <c r="CC176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -44125,14 +44651,17 @@
       </c>
       <c r="CC177" t="n">
         <v>273.0</v>
+      </c>
+      <c r="CD177" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -44370,14 +44899,17 @@
       </c>
       <c r="CC178" t="n">
         <v>148.0</v>
+      </c>
+      <c r="CD178" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B179" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -44615,14 +45147,17 @@
       </c>
       <c r="CC179" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CD179" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -44860,14 +45395,17 @@
       </c>
       <c r="CC180" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CD180" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -45105,14 +45643,17 @@
       </c>
       <c r="CC181" t="n">
         <v>1812.0</v>
+      </c>
+      <c r="CD181" t="n">
+        <v>1103.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -45350,14 +45891,17 @@
       </c>
       <c r="CC182" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CD182" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B183" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -45594,15 +46138,18 @@
         <v>18.0</v>
       </c>
       <c r="CC183" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CD183" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -45839,15 +46386,18 @@
         <v>755.0</v>
       </c>
       <c r="CC184" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="CD184" t="n">
         <v>754.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B185" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -46085,14 +46635,17 @@
       </c>
       <c r="CC185" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CD185" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -46330,14 +46883,17 @@
       </c>
       <c r="CC186" t="n">
         <v>120.0</v>
+      </c>
+      <c r="CD186" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -46575,14 +47131,17 @@
       </c>
       <c r="CC187" t="n">
         <v>190.0</v>
+      </c>
+      <c r="CD187" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -46820,14 +47379,17 @@
       </c>
       <c r="CC188" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CD188" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -47065,14 +47627,17 @@
       </c>
       <c r="CC189" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CD189" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -47310,14 +47875,17 @@
       </c>
       <c r="CC190" t="n">
         <v>139.0</v>
+      </c>
+      <c r="CD190" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B191" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -47555,14 +48123,17 @@
       </c>
       <c r="CC191" t="n">
         <v>329.0</v>
+      </c>
+      <c r="CD191" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -47800,14 +48371,17 @@
       </c>
       <c r="CC192" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CD192" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B193" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -48044,15 +48618,18 @@
         <v>61.0</v>
       </c>
       <c r="CC193" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CD193" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B194" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -48290,14 +48867,17 @@
       </c>
       <c r="CC194" t="n">
         <v>398.0</v>
+      </c>
+      <c r="CD194" t="n">
+        <v>324.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B195" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -48535,14 +49115,17 @@
       </c>
       <c r="CC195" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CD195" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B196" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -48780,14 +49363,17 @@
       </c>
       <c r="CC196" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CD196" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B197" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -49024,15 +49610,18 @@
         <v>16.0</v>
       </c>
       <c r="CC197" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CD197" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B198" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -49270,14 +49859,17 @@
       </c>
       <c r="CC198" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CD198" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B199" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -49515,14 +50107,17 @@
       </c>
       <c r="CC199" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CD199" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B200" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -49759,15 +50354,18 @@
         <v>1.0</v>
       </c>
       <c r="CC200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B201" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -50005,14 +50603,17 @@
       </c>
       <c r="CC201" t="n">
         <v>214.0</v>
+      </c>
+      <c r="CD201" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B202" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -50250,14 +50851,17 @@
       </c>
       <c r="CC202" t="n">
         <v>154.0</v>
+      </c>
+      <c r="CD202" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B203" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -50495,14 +51099,17 @@
       </c>
       <c r="CC203" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CD203" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B204" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -50740,14 +51347,17 @@
       </c>
       <c r="CC204" t="n">
         <v>355.0</v>
+      </c>
+      <c r="CD204" t="n">
+        <v>367.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -50984,15 +51594,18 @@
         <v>0.0</v>
       </c>
       <c r="CC205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -51229,15 +51842,18 @@
         <v>14.0</v>
       </c>
       <c r="CC206" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CD206" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -51475,14 +52091,17 @@
       </c>
       <c r="CC207" t="n">
         <v>186.0</v>
+      </c>
+      <c r="CD207" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B208" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -51719,15 +52338,18 @@
         <v>43.0</v>
       </c>
       <c r="CC208" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CD208" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -51965,14 +52587,17 @@
       </c>
       <c r="CC209" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CD209" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -52210,14 +52835,17 @@
       </c>
       <c r="CC210" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CD210" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B211" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -52455,14 +53083,17 @@
       </c>
       <c r="CC211" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CD211" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B212" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -52699,15 +53330,18 @@
         <v>1.0</v>
       </c>
       <c r="CC212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD212" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -52945,14 +53579,17 @@
       </c>
       <c r="CC213" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CD213" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -53189,15 +53826,18 @@
         <v>22.0</v>
       </c>
       <c r="CC214" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CD214" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -53435,14 +54075,17 @@
       </c>
       <c r="CC215" t="n">
         <v>1537.0</v>
+      </c>
+      <c r="CD215" t="n">
+        <v>1536.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B216" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -53680,14 +54323,17 @@
       </c>
       <c r="CC216" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CD216" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B217" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -53925,14 +54571,17 @@
       </c>
       <c r="CC217" t="n">
         <v>76.0</v>
+      </c>
+      <c r="CD217" t="n">
+        <v>319.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B218" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -54170,14 +54819,17 @@
       </c>
       <c r="CC218" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CD218" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B219" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -54415,14 +55067,17 @@
       </c>
       <c r="CC219" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CD219" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B220" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -54659,15 +55314,18 @@
         <v>2.0</v>
       </c>
       <c r="CC220" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CD220" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B221" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -54904,15 +55562,18 @@
         <v>12.0</v>
       </c>
       <c r="CC221" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CD221" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B222" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -55149,15 +55810,18 @@
         <v>13.0</v>
       </c>
       <c r="CC222" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CD222" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B223" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -55395,14 +56059,17 @@
       </c>
       <c r="CC223" t="n">
         <v>16270.0</v>
+      </c>
+      <c r="CD223" t="n">
+        <v>15688.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B224" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -55640,14 +56307,17 @@
       </c>
       <c r="CC224" t="n">
         <v>708.0</v>
+      </c>
+      <c r="CD224" t="n">
+        <v>694.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B225" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -55884,15 +56554,18 @@
         <v>0.0</v>
       </c>
       <c r="CC225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B226" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -56130,14 +56803,17 @@
       </c>
       <c r="CC226" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CD226" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -56374,15 +57050,18 @@
         <v>0.0</v>
       </c>
       <c r="CC227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -56619,15 +57298,18 @@
         <v>374.0</v>
       </c>
       <c r="CC228" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="CD228" t="n">
         <v>375.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -56865,14 +57547,17 @@
       </c>
       <c r="CC229" t="n">
         <v>220.0</v>
+      </c>
+      <c r="CD229" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B230" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -57110,14 +57795,17 @@
       </c>
       <c r="CC230" t="n">
         <v>1374.0</v>
+      </c>
+      <c r="CD230" t="n">
+        <v>1578.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B231" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -57354,15 +58042,18 @@
         <v>65.0</v>
       </c>
       <c r="CC231" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CD231" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B232" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -57600,14 +58291,17 @@
       </c>
       <c r="CC232" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CD232" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B233" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -57845,14 +58539,17 @@
       </c>
       <c r="CC233" t="n">
         <v>458.0</v>
+      </c>
+      <c r="CD233" t="n">
+        <v>456.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B234" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -58089,15 +58786,18 @@
         <v>16.0</v>
       </c>
       <c r="CC234" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CD234" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B235" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -58335,14 +59035,17 @@
       </c>
       <c r="CC235" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CD235" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B236" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -58579,15 +59282,18 @@
         <v>202.0</v>
       </c>
       <c r="CC236" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="CD236" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B237" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -58824,15 +59530,18 @@
         <v>409.0</v>
       </c>
       <c r="CC237" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="CD237" t="n">
         <v>409.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B238" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -59069,15 +59778,18 @@
         <v>291.0</v>
       </c>
       <c r="CC238" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="CD238" t="n">
         <v>291.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B239" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -59315,14 +60027,17 @@
       </c>
       <c r="CC239" t="n">
         <v>122.0</v>
+      </c>
+      <c r="CD239" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B240" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -59560,14 +60275,17 @@
       </c>
       <c r="CC240" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CD240" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B241" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -59805,14 +60523,17 @@
       </c>
       <c r="CC241" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CD241" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B242" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -60050,14 +60771,17 @@
       </c>
       <c r="CC242" t="n">
         <v>449.0</v>
+      </c>
+      <c r="CD242" t="n">
+        <v>431.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B243" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -60295,14 +61019,17 @@
       </c>
       <c r="CC243" t="n">
         <v>1066.0</v>
+      </c>
+      <c r="CD243" t="n">
+        <v>1064.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B244" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -60540,14 +61267,17 @@
       </c>
       <c r="CC244" t="n">
         <v>71.0</v>
+      </c>
+      <c r="CD244" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B245" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -60785,14 +61515,17 @@
       </c>
       <c r="CC245" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CD245" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B246" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -61030,14 +61763,17 @@
       </c>
       <c r="CC246" t="n">
         <v>303.0</v>
+      </c>
+      <c r="CD246" t="n">
+        <v>265.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B247" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -61274,15 +62010,18 @@
         <v>1.0</v>
       </c>
       <c r="CC247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CD247" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B248" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -61520,14 +62259,17 @@
       </c>
       <c r="CC248" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CD248" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B249" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -61765,14 +62507,17 @@
       </c>
       <c r="CC249" t="n">
         <v>915.0</v>
+      </c>
+      <c r="CD249" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B250" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -62010,14 +62755,17 @@
       </c>
       <c r="CC250" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CD250" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B251" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -62254,15 +63002,18 @@
         <v>13.0</v>
       </c>
       <c r="CC251" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CD251" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -62500,14 +63251,17 @@
       </c>
       <c r="CC252" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CD252" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B253" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -62744,15 +63498,18 @@
         <v>305.0</v>
       </c>
       <c r="CC253" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="CD253" t="n">
         <v>305.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -62990,14 +63747,17 @@
       </c>
       <c r="CC254" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CD254" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -63235,14 +63995,17 @@
       </c>
       <c r="CC255" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CD255" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B256" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -63480,14 +64243,17 @@
       </c>
       <c r="CC256" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CD256" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B257" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -63725,14 +64491,17 @@
       </c>
       <c r="CC257" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CD257" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B258" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -63813,13 +64582,14 @@
       <c r="CA258"/>
       <c r="CB258"/>
       <c r="CC258"/>
+      <c r="CD258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B259" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -63900,13 +64670,14 @@
       <c r="CA259"/>
       <c r="CB259"/>
       <c r="CC259"/>
+      <c r="CD259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B260" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -63987,13 +64758,14 @@
       <c r="CA260"/>
       <c r="CB260"/>
       <c r="CC260"/>
+      <c r="CD260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B261" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -64074,13 +64846,14 @@
       <c r="CA261"/>
       <c r="CB261"/>
       <c r="CC261"/>
+      <c r="CD261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B262" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -64161,13 +64934,14 @@
       <c r="CA262"/>
       <c r="CB262"/>
       <c r="CC262"/>
+      <c r="CD262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B263" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -64248,13 +65022,14 @@
       <c r="CA263"/>
       <c r="CB263"/>
       <c r="CC263"/>
+      <c r="CD263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B264" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -64335,13 +65110,14 @@
       <c r="CA264"/>
       <c r="CB264"/>
       <c r="CC264"/>
+      <c r="CD264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B265" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -64422,13 +65198,14 @@
       <c r="CA265"/>
       <c r="CB265"/>
       <c r="CC265"/>
+      <c r="CD265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B266" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -64509,13 +65286,14 @@
       <c r="CA266"/>
       <c r="CB266"/>
       <c r="CC266"/>
+      <c r="CD266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B267" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -64596,13 +65374,14 @@
       <c r="CA267"/>
       <c r="CB267"/>
       <c r="CC267"/>
+      <c r="CD267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B268" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -64683,13 +65462,14 @@
       <c r="CA268"/>
       <c r="CB268"/>
       <c r="CC268"/>
+      <c r="CD268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B269" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -64770,13 +65550,14 @@
       <c r="CA269"/>
       <c r="CB269"/>
       <c r="CC269"/>
+      <c r="CD269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B270" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -64857,13 +65638,14 @@
       <c r="CA270"/>
       <c r="CB270"/>
       <c r="CC270"/>
+      <c r="CD270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B271" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -64944,13 +65726,14 @@
       <c r="CA271"/>
       <c r="CB271"/>
       <c r="CC271"/>
+      <c r="CD271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B272" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -65031,13 +65814,14 @@
       <c r="CA272"/>
       <c r="CB272"/>
       <c r="CC272"/>
+      <c r="CD272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B273" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -65118,13 +65902,14 @@
       <c r="CA273"/>
       <c r="CB273"/>
       <c r="CC273"/>
+      <c r="CD273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B274" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -65205,13 +65990,14 @@
       <c r="CA274"/>
       <c r="CB274"/>
       <c r="CC274"/>
+      <c r="CD274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B275" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -65292,13 +66078,14 @@
       <c r="CA275"/>
       <c r="CB275"/>
       <c r="CC275"/>
+      <c r="CD275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B276" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -65379,13 +66166,14 @@
       <c r="CA276"/>
       <c r="CB276"/>
       <c r="CC276"/>
+      <c r="CD276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B277" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -65466,13 +66254,14 @@
       <c r="CA277"/>
       <c r="CB277"/>
       <c r="CC277"/>
+      <c r="CD277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B278" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -65553,13 +66342,14 @@
       <c r="CA278"/>
       <c r="CB278"/>
       <c r="CC278"/>
+      <c r="CD278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B279" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -65640,6 +66430,7 @@
       <c r="CA279"/>
       <c r="CB279"/>
       <c r="CC279"/>
+      <c r="CD279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
